--- a/output/diseaase_record.xlsx
+++ b/output/diseaase_record.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="48">
   <si>
     <t>Location</t>
   </si>
@@ -65,9 +65,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2018</t>
-  </si>
-  <si>
     <t>HN_NF</t>
   </si>
   <si>
@@ -113,12 +110,6 @@
     <t>43216</t>
   </si>
   <si>
-    <t>43263</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>8.06.2015 - 19.06.2015</t>
   </si>
   <si>
@@ -135,6 +126,12 @@
   </si>
   <si>
     <t>06.-08.06.2017</t>
+  </si>
+  <si>
+    <t>43263</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>43636</t>
@@ -234,13 +231,13 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -251,13 +248,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -268,13 +265,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -285,13 +282,13 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -302,13 +299,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -319,13 +316,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -336,13 +333,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -353,13 +350,13 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -370,13 +367,13 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -387,13 +384,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -404,13 +401,13 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -421,13 +418,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -438,13 +435,13 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -455,13 +452,13 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -472,13 +469,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -489,13 +486,13 @@
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -506,13 +503,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -523,13 +520,13 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
@@ -540,13 +537,13 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -557,13 +554,13 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -574,13 +571,13 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -591,13 +588,13 @@
         <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -608,13 +605,13 @@
         <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -625,13 +622,13 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -642,13 +639,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
@@ -659,13 +656,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
@@ -676,13 +673,13 @@
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
@@ -693,13 +690,13 @@
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
@@ -710,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -727,13 +724,13 @@
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -744,13 +741,13 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
@@ -761,13 +758,13 @@
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -778,13 +775,13 @@
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -795,13 +792,13 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
@@ -812,13 +809,13 @@
         <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -829,13 +826,13 @@
         <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -846,13 +843,13 @@
         <v>14</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39">
@@ -863,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
@@ -880,13 +877,13 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41">
@@ -897,13 +894,13 @@
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42">
@@ -914,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43">
@@ -931,13 +928,13 @@
         <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
@@ -948,13 +945,13 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -965,13 +962,13 @@
         <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -982,13 +979,13 @@
         <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
@@ -999,13 +996,13 @@
         <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48">
@@ -1016,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
@@ -1033,13 +1030,13 @@
         <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
@@ -1050,13 +1047,13 @@
         <v>14</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51">
@@ -1067,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
@@ -1084,13 +1081,13 @@
         <v>14</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53">
@@ -1101,13 +1098,13 @@
         <v>14</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54">
@@ -1118,13 +1115,13 @@
         <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -1135,13 +1132,13 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -1152,13 +1149,13 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
@@ -1169,13 +1166,13 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
@@ -1186,13 +1183,13 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59">
@@ -1203,13 +1200,13 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
@@ -1220,13 +1217,13 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
@@ -1237,13 +1234,13 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
@@ -1254,13 +1251,13 @@
         <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
@@ -1271,13 +1268,13 @@
         <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
@@ -1288,13 +1285,13 @@
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65">
@@ -1305,13 +1302,13 @@
         <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
@@ -1322,13 +1319,13 @@
         <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
@@ -1339,13 +1336,13 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68">
@@ -1356,13 +1353,13 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
@@ -1373,13 +1370,13 @@
         <v>15</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70">
@@ -1390,13 +1387,13 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
@@ -1407,13 +1404,13 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
@@ -1424,13 +1421,13 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
@@ -1441,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
@@ -1458,13 +1455,13 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -1475,13 +1472,13 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
@@ -1492,13 +1489,13 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -1509,13 +1506,13 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -1526,13 +1523,13 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
@@ -1543,13 +1540,13 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -1560,13 +1557,13 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
@@ -1577,13 +1574,13 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
@@ -1594,13 +1591,13 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
@@ -1611,13 +1608,13 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
@@ -1628,13 +1625,13 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -1645,13 +1642,13 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -1662,13 +1659,13 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
@@ -1679,13 +1676,13 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
@@ -1696,13 +1693,13 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
@@ -1713,13 +1710,13 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
@@ -1730,13 +1727,13 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
@@ -1747,13 +1744,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -1764,13 +1761,13 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
@@ -1781,13 +1778,13 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -1798,13 +1795,13 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -1815,13 +1812,13 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96">
@@ -1832,13 +1829,13 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
@@ -1849,13 +1846,13 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
@@ -1866,13 +1863,13 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99">
@@ -1883,13 +1880,13 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
@@ -1900,13 +1897,13 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
@@ -1917,13 +1914,13 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D101" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
@@ -1934,13 +1931,13 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -1951,13 +1948,13 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
@@ -1968,13 +1965,13 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
@@ -1985,13 +1982,13 @@
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
@@ -2002,13 +1999,13 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
@@ -2019,13 +2016,13 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -2036,13 +2033,13 @@
         <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="109">
@@ -2053,13 +2050,13 @@
         <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
@@ -2070,13 +2067,13 @@
         <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
@@ -2087,13 +2084,13 @@
         <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2104,13 +2101,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="113">
@@ -2121,13 +2118,13 @@
         <v>13</v>
       </c>
       <c r="C113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114">
@@ -2138,13 +2135,13 @@
         <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
@@ -2155,13 +2152,13 @@
         <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
@@ -2172,13 +2169,13 @@
         <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -2189,13 +2186,13 @@
         <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
@@ -2206,13 +2203,13 @@
         <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
@@ -2223,13 +2220,13 @@
         <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
@@ -2240,13 +2237,13 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="121">
@@ -2257,13 +2254,13 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="122">
@@ -2274,13 +2271,13 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123">
@@ -2291,13 +2288,13 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="124">
@@ -2308,13 +2305,13 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
@@ -2325,13 +2322,13 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126">
@@ -2342,13 +2339,13 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="127">
@@ -2359,13 +2356,13 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="128">
@@ -2376,13 +2373,13 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129">
@@ -2393,13 +2390,13 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="130">
@@ -2410,13 +2407,13 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
@@ -2427,13 +2424,13 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="132">
@@ -2444,13 +2441,13 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133">
@@ -2461,13 +2458,13 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="134">
@@ -2478,13 +2475,13 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="135">
@@ -2495,13 +2492,13 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="136">
@@ -2512,13 +2509,13 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137">
@@ -2529,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="138">
@@ -2546,13 +2543,13 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="139">
@@ -2563,13 +2560,13 @@
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="140">
@@ -2580,13 +2577,13 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D140" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="141">
@@ -2597,13 +2594,13 @@
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="142">
@@ -2614,13 +2611,13 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
@@ -2631,13 +2628,13 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="144">
@@ -2648,13 +2645,13 @@
         <v>16</v>
       </c>
       <c r="C144" t="s">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
         <v>22</v>
       </c>
-      <c r="D144" t="s">
-        <v>23</v>
-      </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="145">
@@ -2665,13 +2662,13 @@
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146">
@@ -2682,13 +2679,13 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="147">
@@ -2699,13 +2696,13 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="148">
@@ -2716,13 +2713,13 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="149">
@@ -2733,13 +2730,13 @@
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="150">
@@ -2747,16 +2744,16 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D150" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="151">
@@ -2764,16 +2761,16 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="152">
@@ -2781,16 +2778,16 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D152" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153">
@@ -2798,16 +2795,16 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
@@ -2815,16 +2812,16 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155">
@@ -2832,16 +2829,16 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="156">
@@ -2849,13 +2846,13 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C156" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156" t="s">
         <v>33</v>
@@ -2866,16 +2863,16 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D157" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="158">
@@ -2883,16 +2880,16 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C158" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D158" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="159">
@@ -2900,16 +2897,16 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="160">
@@ -2917,16 +2914,16 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D160" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161">
@@ -2934,16 +2931,16 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="162">
@@ -2951,16 +2948,16 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163">
@@ -2968,16 +2965,16 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D163" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164">
@@ -2985,16 +2982,16 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C164" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D164" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165">
@@ -3002,16 +2999,16 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C165" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
@@ -3019,16 +3016,16 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
@@ -3036,16 +3033,16 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
@@ -3053,16 +3050,16 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C168" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" t="s">
         <v>22</v>
       </c>
-      <c r="D168" t="s">
-        <v>23</v>
-      </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -3070,16 +3067,16 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="170">
@@ -3087,16 +3084,16 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D170" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="171">
@@ -3104,16 +3101,16 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
@@ -3121,16 +3118,16 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D172" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="173">
@@ -3138,16 +3135,16 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="174">
@@ -3155,16 +3152,16 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="175">
@@ -3172,16 +3169,16 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
       </c>
       <c r="D175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="176">
@@ -3189,16 +3186,16 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
       </c>
       <c r="D176" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="177">
@@ -3206,16 +3203,16 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
@@ -3223,16 +3220,16 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
       </c>
       <c r="D178" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
@@ -3240,16 +3237,16 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>18</v>
       </c>
       <c r="D179" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
@@ -3257,16 +3254,16 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
         <v>19</v>
       </c>
       <c r="D180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
@@ -3274,16 +3271,16 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
         <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="182">
@@ -3291,16 +3288,16 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>19</v>
       </c>
       <c r="D182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="183">
@@ -3308,16 +3305,16 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
         <v>19</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184">
@@ -3325,16 +3322,16 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
         <v>19</v>
       </c>
       <c r="D184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="185">
@@ -3342,16 +3339,16 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
         <v>19</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="186">
@@ -3359,16 +3356,16 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D186" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="187">
@@ -3376,16 +3373,16 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188">
@@ -3393,16 +3390,16 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="189">
@@ -3410,16 +3407,16 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="190">
@@ -3427,16 +3424,16 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="191">
@@ -3444,16 +3441,16 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D191" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192">
@@ -3461,16 +3458,16 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C192" t="s">
         <v>18</v>
       </c>
       <c r="D192" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="193">
@@ -3478,16 +3475,16 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C193" t="s">
         <v>18</v>
       </c>
       <c r="D193" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="194">
@@ -3495,16 +3492,16 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C194" t="s">
         <v>18</v>
       </c>
       <c r="D194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E194" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="195">
@@ -3512,16 +3509,16 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C195" t="s">
         <v>18</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E195" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="196">
@@ -3529,16 +3526,16 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C196" t="s">
         <v>18</v>
       </c>
       <c r="D196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="197">
@@ -3546,16 +3543,16 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C197" t="s">
         <v>18</v>
       </c>
       <c r="D197" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="198">
@@ -3563,16 +3560,16 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C198" t="s">
         <v>19</v>
       </c>
       <c r="D198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="199">
@@ -3580,16 +3577,16 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C199" t="s">
         <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200">
@@ -3597,16 +3594,16 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
         <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201">
@@ -3614,16 +3611,16 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C201" t="s">
         <v>19</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="202">
@@ -3631,16 +3628,16 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C202" t="s">
         <v>19</v>
       </c>
       <c r="D202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203">
@@ -3648,16 +3645,16 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C203" t="s">
         <v>19</v>
       </c>
       <c r="D203" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="204">
@@ -3665,13 +3662,13 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D204" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E204" t="s">
         <v>38</v>
@@ -3682,16 +3679,16 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D205" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E205" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="206">
@@ -3699,16 +3696,16 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D206" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="207">
@@ -3716,16 +3713,16 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E207" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="208">
@@ -3733,16 +3730,16 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E208" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="209">
@@ -3750,16 +3747,16 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210">
@@ -3767,16 +3764,16 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
         <v>18</v>
       </c>
       <c r="D210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E210" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="211">
@@ -3784,16 +3781,16 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C211" t="s">
         <v>18</v>
       </c>
       <c r="D211" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E211" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="212">
@@ -3801,16 +3798,16 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C212" t="s">
         <v>18</v>
       </c>
       <c r="D212" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213">
@@ -3818,16 +3815,16 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C213" t="s">
         <v>18</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E213" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="214">
@@ -3835,16 +3832,16 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
         <v>18</v>
       </c>
       <c r="D214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="215">
@@ -3852,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
         <v>18</v>
       </c>
       <c r="D215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216">
@@ -3869,16 +3866,16 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
         <v>19</v>
       </c>
       <c r="D216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E216" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="217">
@@ -3886,16 +3883,16 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C217" t="s">
         <v>19</v>
       </c>
       <c r="D217" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E217" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="218">
@@ -3903,16 +3900,16 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C218" t="s">
         <v>19</v>
       </c>
       <c r="D218" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="219">
@@ -3920,16 +3917,16 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
         <v>19</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="220">
@@ -3937,16 +3934,16 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
         <v>19</v>
       </c>
       <c r="D220" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="221">
@@ -3954,16 +3951,16 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
         <v>19</v>
       </c>
       <c r="D221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222">
@@ -3971,16 +3968,16 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D222" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="223">
@@ -3988,16 +3985,16 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C223" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D223" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E223" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="224">
@@ -4005,16 +4002,16 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C224" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D224" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="225">
@@ -4022,16 +4019,16 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C225" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="226">
@@ -4039,16 +4036,16 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C226" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227">
@@ -4056,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C227" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228">
@@ -4076,13 +4073,13 @@
         <v>15</v>
       </c>
       <c r="C228" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D228" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="229">
@@ -4093,13 +4090,13 @@
         <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D229" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E229" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="230">
@@ -4110,13 +4107,13 @@
         <v>15</v>
       </c>
       <c r="C230" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D230" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="231">
@@ -4127,13 +4124,13 @@
         <v>15</v>
       </c>
       <c r="C231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="232">
@@ -4144,13 +4141,13 @@
         <v>15</v>
       </c>
       <c r="C232" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E232" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="233">
@@ -4161,13 +4158,13 @@
         <v>15</v>
       </c>
       <c r="C233" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D233" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="234">
@@ -4178,13 +4175,13 @@
         <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D234" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="235">
@@ -4195,13 +4192,13 @@
         <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D235" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="236">
@@ -4212,13 +4209,13 @@
         <v>15</v>
       </c>
       <c r="C236" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D236" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E236" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="237">
@@ -4229,13 +4226,13 @@
         <v>15</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="238">
@@ -4246,13 +4243,13 @@
         <v>15</v>
       </c>
       <c r="C238" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D238" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="239">
@@ -4263,13 +4260,13 @@
         <v>15</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D239" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="240">
@@ -4280,13 +4277,13 @@
         <v>15</v>
       </c>
       <c r="C240" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D240" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E240" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="241">
@@ -4297,13 +4294,13 @@
         <v>15</v>
       </c>
       <c r="C241" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D241" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="242">
@@ -4314,13 +4311,13 @@
         <v>15</v>
       </c>
       <c r="C242" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D242" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E242" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="243">
@@ -4331,13 +4328,13 @@
         <v>15</v>
       </c>
       <c r="C243" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D243" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E243" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="244">
@@ -4348,13 +4345,13 @@
         <v>15</v>
       </c>
       <c r="C244" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D244" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="245">
@@ -4365,13 +4362,13 @@
         <v>15</v>
       </c>
       <c r="C245" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D245" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="246">
@@ -4382,13 +4379,13 @@
         <v>15</v>
       </c>
       <c r="C246" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" t="s">
         <v>22</v>
       </c>
-      <c r="D246" t="s">
-        <v>23</v>
-      </c>
       <c r="E246" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="247">
@@ -4399,13 +4396,13 @@
         <v>15</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D247" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="248">
@@ -4416,13 +4413,13 @@
         <v>15</v>
       </c>
       <c r="C248" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D248" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="249">
@@ -4433,13 +4430,13 @@
         <v>15</v>
       </c>
       <c r="C249" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="250">
@@ -4450,13 +4447,13 @@
         <v>15</v>
       </c>
       <c r="C250" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D250" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="251">
@@ -4467,13 +4464,13 @@
         <v>15</v>
       </c>
       <c r="C251" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D251" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E251" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="252">
@@ -4484,13 +4481,13 @@
         <v>12</v>
       </c>
       <c r="C252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="253">
@@ -4501,13 +4498,13 @@
         <v>12</v>
       </c>
       <c r="C253" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D253" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="254">
@@ -4518,13 +4515,13 @@
         <v>12</v>
       </c>
       <c r="C254" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D254" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="255">
@@ -4535,13 +4532,13 @@
         <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D255" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="256">
@@ -4552,13 +4549,13 @@
         <v>12</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D256" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="257">
@@ -4569,13 +4566,13 @@
         <v>12</v>
       </c>
       <c r="C257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D257" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="258">
@@ -4586,13 +4583,13 @@
         <v>12</v>
       </c>
       <c r="C258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D258" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="259">
@@ -4603,13 +4600,13 @@
         <v>12</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D259" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="260">
@@ -4620,13 +4617,13 @@
         <v>12</v>
       </c>
       <c r="C260" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D260" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="261">
@@ -4637,13 +4634,13 @@
         <v>12</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D261" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="262">
@@ -4654,13 +4651,13 @@
         <v>12</v>
       </c>
       <c r="C262" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D262" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E262" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="263">
@@ -4671,13 +4668,13 @@
         <v>12</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D263" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E263" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="264">
@@ -4688,13 +4685,13 @@
         <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D264" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E264" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="265">
@@ -4705,13 +4702,13 @@
         <v>12</v>
       </c>
       <c r="C265" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D265" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E265" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="266">
@@ -4722,13 +4719,13 @@
         <v>12</v>
       </c>
       <c r="C266" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D266" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E266" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="267">
@@ -4739,13 +4736,13 @@
         <v>12</v>
       </c>
       <c r="C267" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D267" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E267" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="268">
@@ -4756,13 +4753,13 @@
         <v>12</v>
       </c>
       <c r="C268" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D268" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E268" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269">
@@ -4773,13 +4770,13 @@
         <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D269" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E269" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
@@ -4790,13 +4787,13 @@
         <v>13</v>
       </c>
       <c r="C270" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D270" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="271">
@@ -4807,13 +4804,13 @@
         <v>13</v>
       </c>
       <c r="C271" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D271" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E271" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="272">
@@ -4824,13 +4821,13 @@
         <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D272" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273">
@@ -4841,13 +4838,13 @@
         <v>13</v>
       </c>
       <c r="C273" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D273" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -4858,13 +4855,13 @@
         <v>13</v>
       </c>
       <c r="C274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D274" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E274" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="275">
@@ -4875,13 +4872,13 @@
         <v>13</v>
       </c>
       <c r="C275" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D275" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E275" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276">
@@ -4892,13 +4889,13 @@
         <v>13</v>
       </c>
       <c r="C276" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D276" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E276" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="277">
@@ -4909,13 +4906,13 @@
         <v>13</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D277" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E277" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="278">
@@ -4926,13 +4923,13 @@
         <v>13</v>
       </c>
       <c r="C278" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D278" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279">
@@ -4943,13 +4940,13 @@
         <v>13</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D279" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E279" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280">
@@ -4960,13 +4957,13 @@
         <v>13</v>
       </c>
       <c r="C280" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D280" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E280" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="281">
@@ -4977,13 +4974,13 @@
         <v>13</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D281" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E281" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="282">
@@ -4994,13 +4991,13 @@
         <v>13</v>
       </c>
       <c r="C282" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D282" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="283">
@@ -5011,13 +5008,13 @@
         <v>13</v>
       </c>
       <c r="C283" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D283" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E283" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284">
@@ -5028,13 +5025,13 @@
         <v>13</v>
       </c>
       <c r="C284" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D284" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="285">
@@ -5045,13 +5042,13 @@
         <v>13</v>
       </c>
       <c r="C285" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D285" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E285" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="286">
@@ -5062,13 +5059,13 @@
         <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D286" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E286" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="287">
@@ -5079,13 +5076,13 @@
         <v>13</v>
       </c>
       <c r="C287" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D287" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E287" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="288">
@@ -5096,13 +5093,13 @@
         <v>14</v>
       </c>
       <c r="C288" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D288" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E288" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="289">
@@ -5113,13 +5110,13 @@
         <v>14</v>
       </c>
       <c r="C289" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D289" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E289" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="290">
@@ -5130,13 +5127,13 @@
         <v>14</v>
       </c>
       <c r="C290" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D290" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E290" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="291">
@@ -5147,13 +5144,13 @@
         <v>14</v>
       </c>
       <c r="C291" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D291" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E291" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="292">
@@ -5164,13 +5161,13 @@
         <v>14</v>
       </c>
       <c r="C292" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D292" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E292" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="293">
@@ -5181,13 +5178,13 @@
         <v>14</v>
       </c>
       <c r="C293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D293" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E293" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="294">
@@ -5198,13 +5195,13 @@
         <v>14</v>
       </c>
       <c r="C294" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D294" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E294" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="295">
@@ -5215,13 +5212,13 @@
         <v>14</v>
       </c>
       <c r="C295" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D295" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E295" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="296">
@@ -5232,13 +5229,13 @@
         <v>14</v>
       </c>
       <c r="C296" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D296" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E296" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297">
@@ -5249,13 +5246,13 @@
         <v>14</v>
       </c>
       <c r="C297" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D297" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E297" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298">
@@ -5266,13 +5263,13 @@
         <v>14</v>
       </c>
       <c r="C298" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D298" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E298" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299">
@@ -5283,13 +5280,13 @@
         <v>14</v>
       </c>
       <c r="C299" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D299" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E299" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="300">
@@ -5300,13 +5297,13 @@
         <v>14</v>
       </c>
       <c r="C300" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D300" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E300" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301">
@@ -5317,13 +5314,13 @@
         <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D301" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E301" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302">
@@ -5334,13 +5331,13 @@
         <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D302" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E302" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="303">
@@ -5351,13 +5348,13 @@
         <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D303" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E303" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="304">
@@ -5368,13 +5365,13 @@
         <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D304" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E304" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305">
@@ -5385,13 +5382,13 @@
         <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E305" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="306">
@@ -5402,13 +5399,13 @@
         <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D306" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E306" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="307">
@@ -5419,13 +5416,13 @@
         <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D307" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E307" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308">
@@ -5436,13 +5433,13 @@
         <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D308" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="309">
@@ -5453,13 +5450,13 @@
         <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D309" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E309" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="310">
@@ -5470,13 +5467,13 @@
         <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D310" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E310" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311">
@@ -5487,13 +5484,13 @@
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D311" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E311" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="312">
@@ -5504,13 +5501,13 @@
         <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D312" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="313">
@@ -5521,13 +5518,13 @@
         <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D313" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="314">
@@ -5538,13 +5535,13 @@
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D314" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E314" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="315">
@@ -5555,13 +5552,13 @@
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D315" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E315" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="316">
@@ -5572,13 +5569,13 @@
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D316" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317">
@@ -5589,13 +5586,13 @@
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D317" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E317" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="318">
@@ -5606,13 +5603,13 @@
         <v>16</v>
       </c>
       <c r="C318" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318" t="s">
         <v>22</v>
       </c>
-      <c r="D318" t="s">
-        <v>23</v>
-      </c>
       <c r="E318" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="319">
@@ -5623,13 +5620,13 @@
         <v>16</v>
       </c>
       <c r="C319" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D319" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E319" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="320">
@@ -5640,13 +5637,13 @@
         <v>16</v>
       </c>
       <c r="C320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D320" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E320" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="321">
@@ -5657,13 +5654,13 @@
         <v>16</v>
       </c>
       <c r="C321" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D321" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E321" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="322">
@@ -5674,13 +5671,13 @@
         <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D322" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E322" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="323">
@@ -5691,13 +5688,13 @@
         <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D323" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E323" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="324">
@@ -5708,13 +5705,13 @@
         <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D324" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="325">
@@ -5725,13 +5722,13 @@
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D325" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E325" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326">
@@ -5742,13 +5739,13 @@
         <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D326" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E326" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="327">
@@ -5759,13 +5756,13 @@
         <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D327" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E327" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="328">
@@ -5776,13 +5773,13 @@
         <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D328" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E328" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
@@ -5793,13 +5790,13 @@
         <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E329" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330">
@@ -5810,13 +5807,13 @@
         <v>15</v>
       </c>
       <c r="C330" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D330" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E330" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331">
@@ -5827,13 +5824,13 @@
         <v>15</v>
       </c>
       <c r="C331" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D331" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E331" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="332">
@@ -5844,13 +5841,13 @@
         <v>15</v>
       </c>
       <c r="C332" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D332" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E332" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="333">
@@ -5861,13 +5858,13 @@
         <v>15</v>
       </c>
       <c r="C333" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D333" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E333" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334">
@@ -5878,13 +5875,13 @@
         <v>15</v>
       </c>
       <c r="C334" t="s">
+        <v>21</v>
+      </c>
+      <c r="D334" t="s">
         <v>22</v>
       </c>
-      <c r="D334" t="s">
-        <v>23</v>
-      </c>
       <c r="E334" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="335">
@@ -5895,13 +5892,13 @@
         <v>15</v>
       </c>
       <c r="C335" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D335" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E335" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="336">
@@ -5912,13 +5909,13 @@
         <v>15</v>
       </c>
       <c r="C336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D336" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E336" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="337">
@@ -5929,13 +5926,13 @@
         <v>15</v>
       </c>
       <c r="C337" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D337" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E337" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="338">
@@ -5946,13 +5943,13 @@
         <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D338" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E338" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="339">
@@ -5963,13 +5960,13 @@
         <v>12</v>
       </c>
       <c r="C339" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D339" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E339" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="340">
@@ -5980,13 +5977,13 @@
         <v>12</v>
       </c>
       <c r="C340" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D340" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E340" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="341">
@@ -5997,13 +5994,13 @@
         <v>12</v>
       </c>
       <c r="C341" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D341" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E341" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="342">
@@ -6014,13 +6011,13 @@
         <v>12</v>
       </c>
       <c r="C342" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E342" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="343">
@@ -6031,13 +6028,13 @@
         <v>12</v>
       </c>
       <c r="C343" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D343" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E343" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="344">
@@ -6048,13 +6045,13 @@
         <v>12</v>
       </c>
       <c r="C344" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D344" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E344" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345">
@@ -6065,13 +6062,13 @@
         <v>12</v>
       </c>
       <c r="C345" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D345" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E345" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="346">
@@ -6082,13 +6079,13 @@
         <v>12</v>
       </c>
       <c r="C346" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D346" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E346" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347">
@@ -6099,13 +6096,13 @@
         <v>12</v>
       </c>
       <c r="C347" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D347" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E347" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348">
@@ -6116,13 +6113,13 @@
         <v>12</v>
       </c>
       <c r="C348" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D348" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E348" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="349">
@@ -6133,13 +6130,13 @@
         <v>12</v>
       </c>
       <c r="C349" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D349" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E349" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350">
@@ -6150,13 +6147,13 @@
         <v>12</v>
       </c>
       <c r="C350" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D350" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E350" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="351">
@@ -6167,13 +6164,13 @@
         <v>12</v>
       </c>
       <c r="C351" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D351" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E351" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
@@ -6184,13 +6181,13 @@
         <v>12</v>
       </c>
       <c r="C352" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D352" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E352" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="353">
@@ -6201,13 +6198,13 @@
         <v>12</v>
       </c>
       <c r="C353" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D353" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E353" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="354">
@@ -6218,13 +6215,13 @@
         <v>12</v>
       </c>
       <c r="C354" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D354" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E354" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355">
@@ -6235,13 +6232,13 @@
         <v>12</v>
       </c>
       <c r="C355" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D355" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E355" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="356">
@@ -6252,13 +6249,13 @@
         <v>12</v>
       </c>
       <c r="C356" t="s">
+        <v>21</v>
+      </c>
+      <c r="D356" t="s">
         <v>22</v>
       </c>
-      <c r="D356" t="s">
-        <v>23</v>
-      </c>
       <c r="E356" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="357">
@@ -6269,13 +6266,13 @@
         <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D357" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E357" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358">
@@ -6286,13 +6283,13 @@
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D358" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E358" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="359">
@@ -6303,13 +6300,13 @@
         <v>12</v>
       </c>
       <c r="C359" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D359" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E359" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="360">
@@ -6320,13 +6317,13 @@
         <v>12</v>
       </c>
       <c r="C360" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D360" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E360" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361">
@@ -6337,13 +6334,13 @@
         <v>12</v>
       </c>
       <c r="C361" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D361" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E361" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="362">
@@ -6354,13 +6351,13 @@
         <v>13</v>
       </c>
       <c r="C362" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E362" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="363">
@@ -6371,13 +6368,13 @@
         <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D363" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E363" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
@@ -6388,13 +6385,13 @@
         <v>13</v>
       </c>
       <c r="C364" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D364" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E364" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="365">
@@ -6405,13 +6402,13 @@
         <v>13</v>
       </c>
       <c r="C365" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D365" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E365" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="366">
@@ -6422,13 +6419,13 @@
         <v>13</v>
       </c>
       <c r="C366" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D366" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E366" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="367">
@@ -6439,13 +6436,13 @@
         <v>13</v>
       </c>
       <c r="C367" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D367" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E367" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="368">
@@ -6456,13 +6453,13 @@
         <v>13</v>
       </c>
       <c r="C368" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D368" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E368" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="369">
@@ -6473,13 +6470,13 @@
         <v>13</v>
       </c>
       <c r="C369" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D369" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E369" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370">
@@ -6490,13 +6487,13 @@
         <v>13</v>
       </c>
       <c r="C370" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D370" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E370" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="371">
@@ -6507,13 +6504,13 @@
         <v>13</v>
       </c>
       <c r="C371" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D371" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E371" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="372">
@@ -6524,13 +6521,13 @@
         <v>13</v>
       </c>
       <c r="C372" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D372" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E372" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="373">
@@ -6541,13 +6538,13 @@
         <v>13</v>
       </c>
       <c r="C373" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D373" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E373" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="374">
@@ -6558,13 +6555,13 @@
         <v>13</v>
       </c>
       <c r="C374" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D374" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E374" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="375">
@@ -6575,13 +6572,13 @@
         <v>13</v>
       </c>
       <c r="C375" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D375" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E375" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="376">
@@ -6592,13 +6589,13 @@
         <v>13</v>
       </c>
       <c r="C376" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D376" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E376" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="377">
@@ -6609,13 +6606,13 @@
         <v>13</v>
       </c>
       <c r="C377" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D377" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E377" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="378">
@@ -6626,13 +6623,13 @@
         <v>13</v>
       </c>
       <c r="C378" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D378" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E378" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="379">
@@ -6643,13 +6640,13 @@
         <v>13</v>
       </c>
       <c r="C379" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E379" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="380">
@@ -6660,13 +6657,13 @@
         <v>13</v>
       </c>
       <c r="C380" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" t="s">
         <v>22</v>
       </c>
-      <c r="D380" t="s">
-        <v>23</v>
-      </c>
       <c r="E380" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="381">
@@ -6677,13 +6674,13 @@
         <v>13</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D381" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E381" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="382">
@@ -6694,13 +6691,13 @@
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D382" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E382" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="383">
@@ -6711,13 +6708,13 @@
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D383" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E383" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384">
@@ -6728,13 +6725,13 @@
         <v>13</v>
       </c>
       <c r="C384" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D384" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E384" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="385">
@@ -6745,13 +6742,13 @@
         <v>13</v>
       </c>
       <c r="C385" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D385" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E385" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="386">
@@ -6762,13 +6759,13 @@
         <v>14</v>
       </c>
       <c r="C386" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D386" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E386" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="387">
@@ -6779,13 +6776,13 @@
         <v>14</v>
       </c>
       <c r="C387" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D387" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E387" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="388">
@@ -6796,13 +6793,13 @@
         <v>14</v>
       </c>
       <c r="C388" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D388" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E388" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="389">
@@ -6813,13 +6810,13 @@
         <v>14</v>
       </c>
       <c r="C389" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D389" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E389" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="390">
@@ -6830,13 +6827,13 @@
         <v>14</v>
       </c>
       <c r="C390" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D390" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E390" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="391">
@@ -6847,13 +6844,13 @@
         <v>14</v>
       </c>
       <c r="C391" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D391" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E391" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="392">
@@ -6864,13 +6861,13 @@
         <v>14</v>
       </c>
       <c r="C392" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D392" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E392" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="393">
@@ -6881,13 +6878,13 @@
         <v>14</v>
       </c>
       <c r="C393" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D393" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="394">
@@ -6898,13 +6895,13 @@
         <v>14</v>
       </c>
       <c r="C394" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D394" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E394" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="395">
@@ -6915,13 +6912,13 @@
         <v>14</v>
       </c>
       <c r="C395" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D395" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E395" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="396">
@@ -6932,13 +6929,13 @@
         <v>14</v>
       </c>
       <c r="C396" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D396" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E396" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="397">
@@ -6949,13 +6946,13 @@
         <v>14</v>
       </c>
       <c r="C397" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D397" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E397" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="398">
@@ -6966,13 +6963,13 @@
         <v>14</v>
       </c>
       <c r="C398" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D398" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E398" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="399">
@@ -6983,13 +6980,13 @@
         <v>14</v>
       </c>
       <c r="C399" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D399" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E399" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="400">
@@ -7000,13 +6997,13 @@
         <v>14</v>
       </c>
       <c r="C400" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D400" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E400" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="401">
@@ -7017,13 +7014,13 @@
         <v>14</v>
       </c>
       <c r="C401" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D401" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E401" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="402">
@@ -7034,13 +7031,13 @@
         <v>14</v>
       </c>
       <c r="C402" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D402" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E402" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="403">
@@ -7051,13 +7048,13 @@
         <v>14</v>
       </c>
       <c r="C403" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D403" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E403" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="404">
@@ -7068,13 +7065,13 @@
         <v>14</v>
       </c>
       <c r="C404" t="s">
+        <v>21</v>
+      </c>
+      <c r="D404" t="s">
         <v>22</v>
       </c>
-      <c r="D404" t="s">
-        <v>23</v>
-      </c>
       <c r="E404" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="405">
@@ -7085,13 +7082,13 @@
         <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D405" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E405" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="406">
@@ -7102,13 +7099,13 @@
         <v>14</v>
       </c>
       <c r="C406" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D406" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E406" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="407">
@@ -7119,13 +7116,13 @@
         <v>14</v>
       </c>
       <c r="C407" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D407" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E407" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="408">
@@ -7136,13 +7133,13 @@
         <v>14</v>
       </c>
       <c r="C408" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D408" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E408" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="409">
@@ -7153,13 +7150,13 @@
         <v>14</v>
       </c>
       <c r="C409" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D409" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E409" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="410">
@@ -7170,13 +7167,13 @@
         <v>12</v>
       </c>
       <c r="C410" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D410" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E410" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="411">
@@ -7187,13 +7184,13 @@
         <v>12</v>
       </c>
       <c r="C411" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D411" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E411" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="412">
@@ -7204,13 +7201,13 @@
         <v>12</v>
       </c>
       <c r="C412" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D412" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E412" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="413">
@@ -7221,13 +7218,13 @@
         <v>12</v>
       </c>
       <c r="C413" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D413" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E413" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="414">
@@ -7238,13 +7235,13 @@
         <v>12</v>
       </c>
       <c r="C414" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D414" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E414" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="415">
@@ -7255,13 +7252,13 @@
         <v>12</v>
       </c>
       <c r="C415" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D415" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E415" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="416">
@@ -7272,13 +7269,13 @@
         <v>12</v>
       </c>
       <c r="C416" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D416" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E416" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="417">
@@ -7289,13 +7286,13 @@
         <v>12</v>
       </c>
       <c r="C417" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D417" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E417" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="418">
@@ -7306,13 +7303,13 @@
         <v>12</v>
       </c>
       <c r="C418" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D418" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E418" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="419">
@@ -7323,13 +7320,13 @@
         <v>12</v>
       </c>
       <c r="C419" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D419" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E419" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="420">
@@ -7340,13 +7337,13 @@
         <v>12</v>
       </c>
       <c r="C420" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D420" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="421">
@@ -7357,13 +7354,13 @@
         <v>12</v>
       </c>
       <c r="C421" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D421" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E421" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="422">
@@ -7374,13 +7371,13 @@
         <v>12</v>
       </c>
       <c r="C422" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D422" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E422" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="423">
@@ -7391,13 +7388,13 @@
         <v>12</v>
       </c>
       <c r="C423" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D423" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E423" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="424">
@@ -7408,13 +7405,13 @@
         <v>12</v>
       </c>
       <c r="C424" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D424" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E424" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="425">
@@ -7425,13 +7422,13 @@
         <v>12</v>
       </c>
       <c r="C425" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D425" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E425" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="426">
@@ -7442,13 +7439,13 @@
         <v>12</v>
       </c>
       <c r="C426" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D426" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E426" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="427">
@@ -7459,13 +7456,13 @@
         <v>12</v>
       </c>
       <c r="C427" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D427" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E427" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="428">
@@ -7476,13 +7473,13 @@
         <v>12</v>
       </c>
       <c r="C428" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D428" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E428" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="429">
@@ -7493,13 +7490,13 @@
         <v>12</v>
       </c>
       <c r="C429" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D429" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E429" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="430">
@@ -7510,13 +7507,13 @@
         <v>12</v>
       </c>
       <c r="C430" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D430" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E430" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="431">
@@ -7527,13 +7524,13 @@
         <v>12</v>
       </c>
       <c r="C431" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D431" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E431" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="432">
@@ -7544,13 +7541,13 @@
         <v>12</v>
       </c>
       <c r="C432" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D432" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E432" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="433">
@@ -7561,13 +7558,13 @@
         <v>12</v>
       </c>
       <c r="C433" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D433" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E433" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="434">
@@ -7578,13 +7575,13 @@
         <v>13</v>
       </c>
       <c r="C434" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D434" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E434" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="435">
@@ -7595,13 +7592,13 @@
         <v>13</v>
       </c>
       <c r="C435" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D435" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E435" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="436">
@@ -7612,13 +7609,13 @@
         <v>13</v>
       </c>
       <c r="C436" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D436" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E436" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="437">
@@ -7629,13 +7626,13 @@
         <v>13</v>
       </c>
       <c r="C437" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D437" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E437" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="438">
@@ -7646,13 +7643,13 @@
         <v>13</v>
       </c>
       <c r="C438" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D438" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E438" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="439">
@@ -7663,13 +7660,13 @@
         <v>13</v>
       </c>
       <c r="C439" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D439" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E439" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="440">
@@ -7680,13 +7677,13 @@
         <v>13</v>
       </c>
       <c r="C440" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D440" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E440" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="441">
@@ -7697,13 +7694,13 @@
         <v>13</v>
       </c>
       <c r="C441" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D441" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E441" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="442">
@@ -7714,13 +7711,13 @@
         <v>13</v>
       </c>
       <c r="C442" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D442" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E442" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="443">
@@ -7731,13 +7728,13 @@
         <v>13</v>
       </c>
       <c r="C443" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D443" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E443" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444">
@@ -7748,13 +7745,13 @@
         <v>13</v>
       </c>
       <c r="C444" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D444" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E444" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="445">
@@ -7765,13 +7762,13 @@
         <v>13</v>
       </c>
       <c r="C445" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D445" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E445" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="446">
@@ -7782,13 +7779,13 @@
         <v>13</v>
       </c>
       <c r="C446" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D446" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E446" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="447">
@@ -7799,13 +7796,13 @@
         <v>13</v>
       </c>
       <c r="C447" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D447" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E447" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="448">
@@ -7816,13 +7813,13 @@
         <v>13</v>
       </c>
       <c r="C448" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D448" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E448" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="449">
@@ -7833,13 +7830,13 @@
         <v>13</v>
       </c>
       <c r="C449" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D449" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E449" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="450">
@@ -7850,13 +7847,13 @@
         <v>13</v>
       </c>
       <c r="C450" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D450" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E450" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="451">
@@ -7867,13 +7864,13 @@
         <v>13</v>
       </c>
       <c r="C451" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D451" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E451" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="452">
@@ -7884,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="C452" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D452" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E452" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="453">
@@ -7901,13 +7898,13 @@
         <v>13</v>
       </c>
       <c r="C453" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D453" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E453" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="454">
@@ -7918,13 +7915,13 @@
         <v>13</v>
       </c>
       <c r="C454" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D454" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E454" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="455">
@@ -7935,13 +7932,13 @@
         <v>13</v>
       </c>
       <c r="C455" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D455" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E455" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="456">
@@ -7952,13 +7949,13 @@
         <v>13</v>
       </c>
       <c r="C456" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D456" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E456" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="457">
@@ -7969,13 +7966,13 @@
         <v>13</v>
       </c>
       <c r="C457" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D457" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E457" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/output/diseaase_record.xlsx
+++ b/output/diseaase_record.xlsx
@@ -107,7 +107,7 @@
     <t/>
   </si>
   <si>
-    <t>43216</t>
+    <t>2018-04-28</t>
   </si>
   <si>
     <t>8.06.2015 - 19.06.2015</t>
@@ -128,34 +128,34 @@
     <t>06.-08.06.2017</t>
   </si>
   <si>
-    <t>43263</t>
+    <t>2018-06-14</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t>43636</t>
+    <t>2019-06-22</t>
   </si>
   <si>
-    <t>42102</t>
+    <t>2015-04-10</t>
   </si>
   <si>
-    <t>42145</t>
+    <t>2015-05-23</t>
   </si>
   <si>
     <t>BBCH65</t>
   </si>
   <si>
-    <t>42472</t>
+    <t>2016-04-14</t>
   </si>
   <si>
-    <t>42509</t>
+    <t>2016-05-21</t>
   </si>
   <si>
-    <t>42837</t>
+    <t>2017-04-14</t>
   </si>
   <si>
-    <t>42877</t>
+    <t>2017-05-24</t>
   </si>
 </sst>
 </file>

--- a/output/diseaase_record.xlsx
+++ b/output/diseaase_record.xlsx
@@ -29,9 +29,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>BON</t>
-  </si>
-  <si>
     <t>DKI</t>
   </si>
   <si>
@@ -39,6 +36,9 @@
   </si>
   <si>
     <t>HAN</t>
+  </si>
+  <si>
+    <t>KAL</t>
   </si>
   <si>
     <t>KIE</t>
@@ -50,9 +50,6 @@
     <t>RHH</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>2016</t>
   </si>
   <si>
@@ -62,19 +59,22 @@
     <t>2019</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>HN_WF</t>
   </si>
   <si>
     <t>HN_NF</t>
   </si>
   <si>
-    <t>HN_WF</t>
+    <t>HN_WF_D</t>
   </si>
   <si>
     <t>LN_NF</t>
-  </si>
-  <si>
-    <t>HN_WF_D</t>
   </si>
   <si>
     <t>LN_WF</t>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t>Fusarium</t>
-  </si>
-  <si>
-    <t>April/Mai 2015 (BBCH 40-50)</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t/>
@@ -135,6 +129,12 @@
   </si>
   <si>
     <t>2019-06-22</t>
+  </si>
+  <si>
+    <t>April/Mai 2015 (BBCH 40-50)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>2015-04-10</t>
@@ -254,7 +254,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -271,7 +271,7 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
@@ -288,7 +288,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -305,7 +305,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -322,7 +322,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -330,10 +330,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -347,16 +347,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -364,16 +364,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11">
@@ -381,16 +381,16 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
@@ -398,16 +398,16 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -415,16 +415,16 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
@@ -432,10 +432,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -449,16 +449,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -466,16 +466,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -483,64 +483,64 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -548,101 +548,101 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
@@ -650,101 +650,101 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>28</v>
@@ -752,393 +752,393 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
@@ -1146,16 +1146,16 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -1163,16 +1163,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1180,16 +1180,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -1197,16 +1197,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
@@ -1214,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -1231,16 +1231,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
@@ -1248,16 +1248,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
@@ -1265,16 +1265,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
@@ -1282,16 +1282,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -1299,16 +1299,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E65" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
@@ -1316,16 +1316,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67">
@@ -1333,16 +1333,16 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68">
@@ -1350,16 +1350,16 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
@@ -1367,16 +1367,16 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
       </c>
       <c r="D69" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -1384,16 +1384,16 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
@@ -1401,24 +1401,24 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -1427,15 +1427,15 @@
         <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -1444,15 +1444,15 @@
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -1461,15 +1461,15 @@
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -1478,15 +1478,15 @@
         <v>25</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -1495,15 +1495,15 @@
         <v>26</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -1512,117 +1512,117 @@
         <v>27</v>
       </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D79" t="s">
         <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
         <v>24</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D81" t="s">
         <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D82" t="s">
         <v>26</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D83" t="s">
         <v>27</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>20</v>
@@ -1631,15 +1631,15 @@
         <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>20</v>
@@ -1648,15 +1648,15 @@
         <v>23</v>
       </c>
       <c r="E85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>20</v>
@@ -1665,15 +1665,15 @@
         <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
         <v>20</v>
@@ -1682,15 +1682,15 @@
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
         <v>20</v>
@@ -1699,15 +1699,15 @@
         <v>26</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
@@ -1716,109 +1716,109 @@
         <v>27</v>
       </c>
       <c r="E89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>23</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
         <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D95" t="s">
         <v>27</v>
       </c>
       <c r="E95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96">
@@ -1826,10 +1826,10 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -1843,16 +1843,16 @@
         <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
@@ -1860,16 +1860,16 @@
         <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98" t="s">
         <v>24</v>
       </c>
       <c r="E98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
@@ -1877,16 +1877,16 @@
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99" t="s">
         <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
@@ -1894,16 +1894,16 @@
         <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
@@ -1911,16 +1911,16 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101" t="s">
         <v>27</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -1928,16 +1928,16 @@
         <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D102" t="s">
         <v>22</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="103">
@@ -1945,16 +1945,16 @@
         <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D103" t="s">
         <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
@@ -1962,16 +1962,16 @@
         <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D104" t="s">
         <v>24</v>
       </c>
       <c r="E104" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
@@ -1979,16 +1979,16 @@
         <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D105" t="s">
         <v>25</v>
       </c>
       <c r="E105" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
@@ -1996,16 +1996,16 @@
         <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D106" t="s">
         <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
@@ -2013,16 +2013,16 @@
         <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D107" t="s">
         <v>27</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
@@ -2030,7 +2030,7 @@
         <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C108" t="s">
         <v>20</v>
@@ -2047,7 +2047,7 @@
         <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C109" t="s">
         <v>20</v>
@@ -2056,7 +2056,7 @@
         <v>23</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C110" t="s">
         <v>20</v>
@@ -2073,7 +2073,7 @@
         <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
@@ -2081,7 +2081,7 @@
         <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C111" t="s">
         <v>20</v>
@@ -2090,7 +2090,7 @@
         <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
@@ -2098,7 +2098,7 @@
         <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C112" t="s">
         <v>20</v>
@@ -2107,7 +2107,7 @@
         <v>26</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
@@ -2115,7 +2115,7 @@
         <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C113" t="s">
         <v>20</v>
@@ -2124,7 +2124,7 @@
         <v>27</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
@@ -2132,16 +2132,16 @@
         <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D114" t="s">
         <v>22</v>
       </c>
       <c r="E114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="115">
@@ -2149,16 +2149,16 @@
         <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
@@ -2166,16 +2166,16 @@
         <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
       <c r="E116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
@@ -2183,16 +2183,16 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D117" t="s">
         <v>25</v>
       </c>
       <c r="E117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
@@ -2200,16 +2200,16 @@
         <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D118" t="s">
         <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
@@ -2217,16 +2217,16 @@
         <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D119" t="s">
         <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
@@ -2234,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s">
         <v>17</v>
@@ -2251,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C121" t="s">
         <v>17</v>
@@ -2260,7 +2260,7 @@
         <v>23</v>
       </c>
       <c r="E121" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
@@ -2268,7 +2268,7 @@
         <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>17</v>
@@ -2277,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="E122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
@@ -2285,7 +2285,7 @@
         <v>7</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>17</v>
@@ -2294,7 +2294,7 @@
         <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
@@ -2302,7 +2302,7 @@
         <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>17</v>
@@ -2311,7 +2311,7 @@
         <v>26</v>
       </c>
       <c r="E124" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -2328,7 +2328,7 @@
         <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
@@ -2336,16 +2336,16 @@
         <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D126" t="s">
         <v>22</v>
       </c>
       <c r="E126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="127">
@@ -2353,16 +2353,16 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C127" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D127" t="s">
         <v>23</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
@@ -2370,16 +2370,16 @@
         <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
@@ -2387,16 +2387,16 @@
         <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
       <c r="E129" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
@@ -2404,16 +2404,16 @@
         <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D130" t="s">
         <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
@@ -2421,16 +2421,16 @@
         <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D131" t="s">
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
@@ -2438,16 +2438,16 @@
         <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D132" t="s">
         <v>22</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -2455,16 +2455,16 @@
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D133" t="s">
         <v>23</v>
       </c>
       <c r="E133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
@@ -2472,16 +2472,16 @@
         <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
       </c>
       <c r="E134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
@@ -2489,16 +2489,16 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D135" t="s">
         <v>25</v>
       </c>
       <c r="E135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
@@ -2506,16 +2506,16 @@
         <v>7</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D136" t="s">
         <v>26</v>
       </c>
       <c r="E136" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
@@ -2523,16 +2523,16 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D137" t="s">
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
@@ -2540,10 +2540,10 @@
         <v>7</v>
       </c>
       <c r="B138" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D138" t="s">
         <v>22</v>
@@ -2557,10 +2557,10 @@
         <v>7</v>
       </c>
       <c r="B139" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -2574,10 +2574,10 @@
         <v>7</v>
       </c>
       <c r="B140" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D140" t="s">
         <v>24</v>
@@ -2591,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="B141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D141" t="s">
         <v>25</v>
@@ -2608,16 +2608,16 @@
         <v>7</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D142" t="s">
         <v>26</v>
       </c>
       <c r="E142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="143">
@@ -2625,10 +2625,10 @@
         <v>7</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D143" t="s">
         <v>27</v>
@@ -2642,16 +2642,16 @@
         <v>7</v>
       </c>
       <c r="B144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D144" t="s">
         <v>22</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
@@ -2659,16 +2659,16 @@
         <v>7</v>
       </c>
       <c r="B145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
       </c>
       <c r="E145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
@@ -2676,16 +2676,16 @@
         <v>7</v>
       </c>
       <c r="B146" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D146" t="s">
         <v>24</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
@@ -2693,16 +2693,16 @@
         <v>7</v>
       </c>
       <c r="B147" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D147" t="s">
         <v>25</v>
       </c>
       <c r="E147" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
@@ -2710,16 +2710,16 @@
         <v>7</v>
       </c>
       <c r="B148" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D148" t="s">
         <v>26</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
@@ -2727,432 +2727,432 @@
         <v>7</v>
       </c>
       <c r="B149" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D149" t="s">
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D151" t="s">
         <v>23</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152" t="s">
         <v>24</v>
       </c>
       <c r="E152" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153" t="s">
         <v>25</v>
       </c>
       <c r="E153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154" t="s">
         <v>26</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D156" t="s">
         <v>22</v>
       </c>
       <c r="E156" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
       </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D158" t="s">
         <v>24</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D159" t="s">
         <v>25</v>
       </c>
       <c r="E159" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D160" t="s">
         <v>26</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D161" t="s">
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162" t="s">
         <v>22</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163" t="s">
         <v>23</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164" t="s">
         <v>24</v>
       </c>
       <c r="E164" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165" t="s">
         <v>25</v>
       </c>
       <c r="E165" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D166" t="s">
         <v>26</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D167" t="s">
         <v>27</v>
       </c>
       <c r="E167" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D169" t="s">
         <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
         <v>24</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D171" t="s">
         <v>25</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D172" t="s">
         <v>26</v>
       </c>
       <c r="E172" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
       </c>
       <c r="E173" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C174" t="s">
         <v>18</v>
@@ -3161,15 +3161,15 @@
         <v>22</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
         <v>18</v>
@@ -3178,15 +3178,15 @@
         <v>23</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C176" t="s">
         <v>18</v>
@@ -3195,15 +3195,15 @@
         <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C177" t="s">
         <v>18</v>
@@ -3212,15 +3212,15 @@
         <v>25</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C178" t="s">
         <v>18</v>
@@ -3229,15 +3229,15 @@
         <v>26</v>
       </c>
       <c r="E178" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C179" t="s">
         <v>18</v>
@@ -3246,313 +3246,313 @@
         <v>27</v>
       </c>
       <c r="E179" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C180" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D180" t="s">
         <v>22</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D181" t="s">
         <v>23</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D182" t="s">
         <v>24</v>
       </c>
       <c r="E182" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D183" t="s">
         <v>25</v>
       </c>
       <c r="E183" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D184" t="s">
         <v>26</v>
       </c>
       <c r="E184" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D185" t="s">
         <v>27</v>
       </c>
       <c r="E185" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
         <v>14</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D186" t="s">
         <v>22</v>
       </c>
       <c r="E186" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
         <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
         <v>23</v>
       </c>
       <c r="E187" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>14</v>
       </c>
       <c r="C188" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D188" t="s">
         <v>24</v>
       </c>
       <c r="E188" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
         <v>14</v>
       </c>
       <c r="C189" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D189" t="s">
         <v>25</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
         <v>14</v>
       </c>
       <c r="C190" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D190" t="s">
         <v>26</v>
       </c>
       <c r="E190" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
         <v>14</v>
       </c>
       <c r="C191" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
       </c>
       <c r="E191" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
         <v>14</v>
       </c>
       <c r="C192" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D192" t="s">
         <v>22</v>
       </c>
       <c r="E192" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
         <v>14</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D193" t="s">
         <v>23</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B194" t="s">
         <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D194" t="s">
         <v>24</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B195" t="s">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D195" t="s">
         <v>25</v>
       </c>
       <c r="E195" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>14</v>
       </c>
       <c r="C196" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D196" t="s">
         <v>26</v>
       </c>
       <c r="E196" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>14</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D197" t="s">
         <v>27</v>
       </c>
       <c r="E197" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="198">
@@ -3560,16 +3560,16 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D198" t="s">
         <v>22</v>
       </c>
       <c r="E198" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199">
@@ -3577,16 +3577,16 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D199" t="s">
         <v>23</v>
       </c>
       <c r="E199" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="200">
@@ -3594,16 +3594,16 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
         <v>24</v>
       </c>
       <c r="E200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="201">
@@ -3611,16 +3611,16 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D201" t="s">
         <v>25</v>
       </c>
       <c r="E201" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="202">
@@ -3628,16 +3628,16 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D202" t="s">
         <v>26</v>
       </c>
       <c r="E202" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="203">
@@ -3645,16 +3645,16 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D203" t="s">
         <v>27</v>
       </c>
       <c r="E203" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="204">
@@ -3662,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C204" t="s">
         <v>17</v>
@@ -3671,7 +3671,7 @@
         <v>22</v>
       </c>
       <c r="E204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205">
@@ -3679,7 +3679,7 @@
         <v>8</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205" t="s">
         <v>17</v>
@@ -3688,7 +3688,7 @@
         <v>23</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="206">
@@ -3696,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C206" t="s">
         <v>17</v>
@@ -3705,7 +3705,7 @@
         <v>24</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="207">
@@ -3713,7 +3713,7 @@
         <v>8</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
         <v>17</v>
@@ -3722,7 +3722,7 @@
         <v>25</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="208">
@@ -3730,7 +3730,7 @@
         <v>8</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>17</v>
@@ -3739,7 +3739,7 @@
         <v>26</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="209">
@@ -3747,7 +3747,7 @@
         <v>8</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>17</v>
@@ -3756,7 +3756,7 @@
         <v>27</v>
       </c>
       <c r="E209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="210">
@@ -3764,16 +3764,16 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D210" t="s">
         <v>22</v>
       </c>
       <c r="E210" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211">
@@ -3781,16 +3781,16 @@
         <v>8</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D211" t="s">
         <v>23</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="212">
@@ -3798,16 +3798,16 @@
         <v>8</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D212" t="s">
         <v>24</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213">
@@ -3815,16 +3815,16 @@
         <v>8</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D213" t="s">
         <v>25</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="214">
@@ -3832,16 +3832,16 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D214" t="s">
         <v>26</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="215">
@@ -3849,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D215" t="s">
         <v>27</v>
       </c>
       <c r="E215" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="216">
@@ -3866,16 +3866,16 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D216" t="s">
         <v>22</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217">
@@ -3883,16 +3883,16 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D217" t="s">
         <v>23</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218">
@@ -3900,16 +3900,16 @@
         <v>8</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D218" t="s">
         <v>24</v>
       </c>
       <c r="E218" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="219">
@@ -3917,16 +3917,16 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D219" t="s">
         <v>25</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="220">
@@ -3934,16 +3934,16 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D220" t="s">
         <v>26</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="221">
@@ -3951,16 +3951,16 @@
         <v>8</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D221" t="s">
         <v>27</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="222">
@@ -3968,16 +3968,16 @@
         <v>8</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D222" t="s">
         <v>22</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223">
@@ -3985,16 +3985,16 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D223" t="s">
         <v>23</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="224">
@@ -4002,16 +4002,16 @@
         <v>8</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D224" t="s">
         <v>24</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="225">
@@ -4019,16 +4019,16 @@
         <v>8</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D225" t="s">
         <v>25</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="226">
@@ -4036,16 +4036,16 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D226" t="s">
         <v>26</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="227">
@@ -4053,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C227" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D227" t="s">
         <v>27</v>
       </c>
       <c r="E227" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="228">
@@ -4070,16 +4070,16 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D228" t="s">
         <v>22</v>
       </c>
       <c r="E228" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229">
@@ -4087,10 +4087,10 @@
         <v>8</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D229" t="s">
         <v>23</v>
@@ -4104,10 +4104,10 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C230" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D230" t="s">
         <v>24</v>
@@ -4121,10 +4121,10 @@
         <v>8</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D231" t="s">
         <v>25</v>
@@ -4138,10 +4138,10 @@
         <v>8</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D232" t="s">
         <v>26</v>
@@ -4155,16 +4155,16 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D233" t="s">
         <v>27</v>
       </c>
       <c r="E233" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="234">
@@ -4172,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
         <v>18</v>
@@ -4189,7 +4189,7 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C235" t="s">
         <v>18</v>
@@ -4206,7 +4206,7 @@
         <v>8</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C236" t="s">
         <v>18</v>
@@ -4223,7 +4223,7 @@
         <v>8</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C237" t="s">
         <v>18</v>
@@ -4240,7 +4240,7 @@
         <v>8</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C238" t="s">
         <v>18</v>
@@ -4257,7 +4257,7 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
         <v>18</v>
@@ -4266,7 +4266,7 @@
         <v>27</v>
       </c>
       <c r="E239" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="240">
@@ -4274,10 +4274,10 @@
         <v>8</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C240" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D240" t="s">
         <v>22</v>
@@ -4291,10 +4291,10 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D241" t="s">
         <v>23</v>
@@ -4308,10 +4308,10 @@
         <v>8</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D242" t="s">
         <v>24</v>
@@ -4325,10 +4325,10 @@
         <v>8</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D243" t="s">
         <v>25</v>
@@ -4342,10 +4342,10 @@
         <v>8</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C244" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D244" t="s">
         <v>26</v>
@@ -4359,16 +4359,16 @@
         <v>8</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D245" t="s">
         <v>27</v>
       </c>
       <c r="E245" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="246">
@@ -4376,10 +4376,10 @@
         <v>8</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C246" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D246" t="s">
         <v>22</v>
@@ -4393,10 +4393,10 @@
         <v>8</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C247" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D247" t="s">
         <v>23</v>
@@ -4410,10 +4410,10 @@
         <v>8</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C248" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D248" t="s">
         <v>24</v>
@@ -4427,10 +4427,10 @@
         <v>8</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C249" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D249" t="s">
         <v>25</v>
@@ -4444,10 +4444,10 @@
         <v>8</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C250" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D250" t="s">
         <v>26</v>
@@ -4461,16 +4461,16 @@
         <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C251" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D251" t="s">
         <v>27</v>
       </c>
       <c r="E251" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="252">
@@ -4478,16 +4478,16 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C252" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D252" t="s">
         <v>22</v>
       </c>
       <c r="E252" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253">
@@ -4495,16 +4495,16 @@
         <v>9</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C253" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D253" t="s">
         <v>23</v>
       </c>
       <c r="E253" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="254">
@@ -4512,16 +4512,16 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C254" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D254" t="s">
         <v>24</v>
       </c>
       <c r="E254" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="255">
@@ -4529,16 +4529,16 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C255" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D255" t="s">
         <v>25</v>
       </c>
       <c r="E255" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="256">
@@ -4546,16 +4546,16 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D256" t="s">
         <v>26</v>
       </c>
       <c r="E256" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="257">
@@ -4563,16 +4563,16 @@
         <v>9</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D257" t="s">
         <v>27</v>
       </c>
       <c r="E257" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="258">
@@ -4580,16 +4580,16 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C258" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D258" t="s">
         <v>22</v>
       </c>
       <c r="E258" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="259">
@@ -4597,16 +4597,16 @@
         <v>9</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D259" t="s">
         <v>23</v>
       </c>
       <c r="E259" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="260">
@@ -4614,16 +4614,16 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C260" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D260" t="s">
         <v>24</v>
       </c>
       <c r="E260" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="261">
@@ -4631,16 +4631,16 @@
         <v>9</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D261" t="s">
         <v>25</v>
       </c>
       <c r="E261" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="262">
@@ -4648,16 +4648,16 @@
         <v>9</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D262" t="s">
         <v>26</v>
       </c>
       <c r="E262" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="263">
@@ -4665,16 +4665,16 @@
         <v>9</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C263" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D263" t="s">
         <v>27</v>
       </c>
       <c r="E263" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="264">
@@ -4682,16 +4682,16 @@
         <v>9</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C264" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D264" t="s">
         <v>22</v>
       </c>
       <c r="E264" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="265">
@@ -4699,16 +4699,16 @@
         <v>9</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D265" t="s">
         <v>23</v>
       </c>
       <c r="E265" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="266">
@@ -4716,16 +4716,16 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C266" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D266" t="s">
         <v>24</v>
       </c>
       <c r="E266" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="267">
@@ -4733,16 +4733,16 @@
         <v>9</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D267" t="s">
         <v>25</v>
       </c>
       <c r="E267" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="268">
@@ -4750,16 +4750,16 @@
         <v>9</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C268" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D268" t="s">
         <v>26</v>
       </c>
       <c r="E268" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="269">
@@ -4767,16 +4767,16 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D269" t="s">
         <v>27</v>
       </c>
       <c r="E269" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="270">
@@ -4784,16 +4784,16 @@
         <v>9</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C270" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D270" t="s">
         <v>22</v>
       </c>
       <c r="E270" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="271">
@@ -4801,16 +4801,16 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C271" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D271" t="s">
         <v>23</v>
       </c>
       <c r="E271" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
@@ -4818,16 +4818,16 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C272" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D272" t="s">
         <v>24</v>
       </c>
       <c r="E272" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="273">
@@ -4835,16 +4835,16 @@
         <v>9</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C273" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D273" t="s">
         <v>25</v>
       </c>
       <c r="E273" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
@@ -4852,16 +4852,16 @@
         <v>9</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C274" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D274" t="s">
         <v>26</v>
       </c>
       <c r="E274" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="275">
@@ -4869,16 +4869,16 @@
         <v>9</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C275" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D275" t="s">
         <v>27</v>
       </c>
       <c r="E275" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="276">
@@ -4886,16 +4886,16 @@
         <v>9</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D276" t="s">
         <v>22</v>
       </c>
       <c r="E276" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="277">
@@ -4903,16 +4903,16 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C277" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D277" t="s">
         <v>23</v>
       </c>
       <c r="E277" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="278">
@@ -4920,16 +4920,16 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D278" t="s">
         <v>24</v>
       </c>
       <c r="E278" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="279">
@@ -4937,16 +4937,16 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D279" t="s">
         <v>25</v>
       </c>
       <c r="E279" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="280">
@@ -4954,16 +4954,16 @@
         <v>9</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C280" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D280" t="s">
         <v>26</v>
       </c>
       <c r="E280" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="281">
@@ -4971,16 +4971,16 @@
         <v>9</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C281" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D281" t="s">
         <v>27</v>
       </c>
       <c r="E281" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="282">
@@ -4988,16 +4988,16 @@
         <v>9</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C282" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D282" t="s">
         <v>22</v>
       </c>
       <c r="E282" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="283">
@@ -5005,16 +5005,16 @@
         <v>9</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C283" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D283" t="s">
         <v>23</v>
       </c>
       <c r="E283" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
@@ -5022,16 +5022,16 @@
         <v>9</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C284" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D284" t="s">
         <v>24</v>
       </c>
       <c r="E284" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="285">
@@ -5039,16 +5039,16 @@
         <v>9</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C285" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D285" t="s">
         <v>25</v>
       </c>
       <c r="E285" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="286">
@@ -5056,16 +5056,16 @@
         <v>9</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D286" t="s">
         <v>26</v>
       </c>
       <c r="E286" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="287">
@@ -5073,16 +5073,16 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C287" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D287" t="s">
         <v>27</v>
       </c>
       <c r="E287" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="288">
@@ -5090,16 +5090,16 @@
         <v>9</v>
       </c>
       <c r="B288" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C288" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D288" t="s">
         <v>22</v>
       </c>
       <c r="E288" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="289">
@@ -5107,16 +5107,16 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C289" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D289" t="s">
         <v>23</v>
       </c>
       <c r="E289" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="290">
@@ -5124,16 +5124,16 @@
         <v>9</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C290" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D290" t="s">
         <v>24</v>
       </c>
       <c r="E290" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="291">
@@ -5141,16 +5141,16 @@
         <v>9</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D291" t="s">
         <v>25</v>
       </c>
       <c r="E291" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="292">
@@ -5158,16 +5158,16 @@
         <v>9</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C292" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D292" t="s">
         <v>26</v>
       </c>
       <c r="E292" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="293">
@@ -5175,16 +5175,16 @@
         <v>9</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C293" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D293" t="s">
         <v>27</v>
       </c>
       <c r="E293" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294">
@@ -5192,16 +5192,16 @@
         <v>9</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C294" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D294" t="s">
         <v>22</v>
       </c>
       <c r="E294" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="295">
@@ -5209,16 +5209,16 @@
         <v>9</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C295" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D295" t="s">
         <v>23</v>
       </c>
       <c r="E295" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296">
@@ -5226,16 +5226,16 @@
         <v>9</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C296" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D296" t="s">
         <v>24</v>
       </c>
       <c r="E296" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297">
@@ -5243,16 +5243,16 @@
         <v>9</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C297" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D297" t="s">
         <v>25</v>
       </c>
       <c r="E297" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="298">
@@ -5260,16 +5260,16 @@
         <v>9</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C298" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D298" t="s">
         <v>26</v>
       </c>
       <c r="E298" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299">
@@ -5277,16 +5277,16 @@
         <v>9</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C299" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D299" t="s">
         <v>27</v>
       </c>
       <c r="E299" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300">
@@ -5294,16 +5294,16 @@
         <v>9</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D300" t="s">
         <v>22</v>
       </c>
       <c r="E300" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="301">
@@ -5311,16 +5311,16 @@
         <v>9</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C301" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D301" t="s">
         <v>23</v>
       </c>
       <c r="E301" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="302">
@@ -5328,16 +5328,16 @@
         <v>9</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D302" t="s">
         <v>24</v>
       </c>
       <c r="E302" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="303">
@@ -5345,16 +5345,16 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C303" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D303" t="s">
         <v>25</v>
       </c>
       <c r="E303" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="304">
@@ -5362,16 +5362,16 @@
         <v>9</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C304" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D304" t="s">
         <v>26</v>
       </c>
       <c r="E304" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="305">
@@ -5379,16 +5379,16 @@
         <v>9</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D305" t="s">
         <v>27</v>
       </c>
       <c r="E305" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="306">
@@ -5399,13 +5399,13 @@
         <v>16</v>
       </c>
       <c r="C306" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D306" t="s">
         <v>22</v>
       </c>
       <c r="E306" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307">
@@ -5416,13 +5416,13 @@
         <v>16</v>
       </c>
       <c r="C307" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D307" t="s">
         <v>23</v>
       </c>
       <c r="E307" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="308">
@@ -5433,13 +5433,13 @@
         <v>16</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D308" t="s">
         <v>24</v>
       </c>
       <c r="E308" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="309">
@@ -5450,13 +5450,13 @@
         <v>16</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D309" t="s">
         <v>25</v>
       </c>
       <c r="E309" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="310">
@@ -5467,13 +5467,13 @@
         <v>16</v>
       </c>
       <c r="C310" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D310" t="s">
         <v>22</v>
       </c>
       <c r="E310" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="311">
@@ -5484,13 +5484,13 @@
         <v>16</v>
       </c>
       <c r="C311" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D311" t="s">
         <v>23</v>
       </c>
       <c r="E311" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="312">
@@ -5501,13 +5501,13 @@
         <v>16</v>
       </c>
       <c r="C312" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D312" t="s">
         <v>24</v>
       </c>
       <c r="E312" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="313">
@@ -5518,13 +5518,13 @@
         <v>16</v>
       </c>
       <c r="C313" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D313" t="s">
         <v>25</v>
       </c>
       <c r="E313" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314">
@@ -5535,13 +5535,13 @@
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D314" t="s">
         <v>22</v>
       </c>
       <c r="E314" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="315">
@@ -5552,13 +5552,13 @@
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D315" t="s">
         <v>23</v>
       </c>
       <c r="E315" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="316">
@@ -5569,13 +5569,13 @@
         <v>16</v>
       </c>
       <c r="C316" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D316" t="s">
         <v>24</v>
       </c>
       <c r="E316" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="317">
@@ -5586,13 +5586,13 @@
         <v>16</v>
       </c>
       <c r="C317" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D317" t="s">
         <v>25</v>
       </c>
       <c r="E317" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="318">
@@ -5609,7 +5609,7 @@
         <v>22</v>
       </c>
       <c r="E318" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="319">
@@ -5626,7 +5626,7 @@
         <v>23</v>
       </c>
       <c r="E319" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320">
@@ -5643,7 +5643,7 @@
         <v>24</v>
       </c>
       <c r="E320" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="321">
@@ -5660,7 +5660,7 @@
         <v>25</v>
       </c>
       <c r="E321" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="322">
@@ -5668,16 +5668,16 @@
         <v>9</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D322" t="s">
         <v>22</v>
       </c>
       <c r="E322" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="323">
@@ -5685,16 +5685,16 @@
         <v>9</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C323" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D323" t="s">
         <v>23</v>
       </c>
       <c r="E323" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="324">
@@ -5702,16 +5702,16 @@
         <v>9</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C324" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D324" t="s">
         <v>24</v>
       </c>
       <c r="E324" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="325">
@@ -5719,16 +5719,16 @@
         <v>9</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C325" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D325" t="s">
         <v>25</v>
       </c>
       <c r="E325" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="326">
@@ -5736,16 +5736,16 @@
         <v>9</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C326" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D326" t="s">
         <v>22</v>
       </c>
       <c r="E326" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="327">
@@ -5753,16 +5753,16 @@
         <v>9</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C327" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D327" t="s">
         <v>23</v>
       </c>
       <c r="E327" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="328">
@@ -5770,16 +5770,16 @@
         <v>9</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C328" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D328" t="s">
         <v>24</v>
       </c>
       <c r="E328" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="329">
@@ -5787,16 +5787,16 @@
         <v>9</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C329" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D329" t="s">
         <v>25</v>
       </c>
       <c r="E329" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="330">
@@ -5804,16 +5804,16 @@
         <v>9</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C330" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D330" t="s">
         <v>22</v>
       </c>
       <c r="E330" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="331">
@@ -5821,16 +5821,16 @@
         <v>9</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C331" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D331" t="s">
         <v>23</v>
       </c>
       <c r="E331" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332">
@@ -5838,16 +5838,16 @@
         <v>9</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C332" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D332" t="s">
         <v>24</v>
       </c>
       <c r="E332" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="333">
@@ -5855,16 +5855,16 @@
         <v>9</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C333" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D333" t="s">
         <v>25</v>
       </c>
       <c r="E333" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="334">
@@ -5872,7 +5872,7 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C334" t="s">
         <v>21</v>
@@ -5881,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="E334" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="335">
@@ -5889,7 +5889,7 @@
         <v>9</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C335" t="s">
         <v>21</v>
@@ -5898,7 +5898,7 @@
         <v>23</v>
       </c>
       <c r="E335" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336">
@@ -5906,7 +5906,7 @@
         <v>9</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C336" t="s">
         <v>21</v>
@@ -5915,7 +5915,7 @@
         <v>24</v>
       </c>
       <c r="E336" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="337">
@@ -5923,7 +5923,7 @@
         <v>9</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C337" t="s">
         <v>21</v>
@@ -5932,7 +5932,7 @@
         <v>25</v>
       </c>
       <c r="E337" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="338">
@@ -5940,10 +5940,10 @@
         <v>10</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C338" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D338" t="s">
         <v>22</v>
@@ -5957,16 +5957,16 @@
         <v>10</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D339" t="s">
         <v>23</v>
       </c>
       <c r="E339" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="340">
@@ -5974,10 +5974,10 @@
         <v>10</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D340" t="s">
         <v>24</v>
@@ -5991,16 +5991,16 @@
         <v>10</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C341" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D341" t="s">
         <v>25</v>
       </c>
       <c r="E341" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="342">
@@ -6008,16 +6008,16 @@
         <v>10</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C342" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D342" t="s">
         <v>26</v>
       </c>
       <c r="E342" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343">
@@ -6025,10 +6025,10 @@
         <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C343" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D343" t="s">
         <v>27</v>
@@ -6042,16 +6042,16 @@
         <v>10</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D344" t="s">
         <v>22</v>
       </c>
       <c r="E344" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345">
@@ -6059,16 +6059,16 @@
         <v>10</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D345" t="s">
         <v>23</v>
       </c>
       <c r="E345" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="346">
@@ -6076,16 +6076,16 @@
         <v>10</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C346" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D346" t="s">
         <v>24</v>
       </c>
       <c r="E346" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="347">
@@ -6093,16 +6093,16 @@
         <v>10</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C347" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D347" t="s">
         <v>25</v>
       </c>
       <c r="E347" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="348">
@@ -6110,16 +6110,16 @@
         <v>10</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C348" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D348" t="s">
         <v>26</v>
       </c>
       <c r="E348" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="349">
@@ -6127,16 +6127,16 @@
         <v>10</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C349" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D349" t="s">
         <v>27</v>
       </c>
       <c r="E349" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="350">
@@ -6144,10 +6144,10 @@
         <v>10</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C350" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D350" t="s">
         <v>22</v>
@@ -6161,16 +6161,16 @@
         <v>10</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C351" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D351" t="s">
         <v>23</v>
       </c>
       <c r="E351" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="352">
@@ -6178,10 +6178,10 @@
         <v>10</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C352" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D352" t="s">
         <v>24</v>
@@ -6195,16 +6195,16 @@
         <v>10</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C353" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D353" t="s">
         <v>25</v>
       </c>
       <c r="E353" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="354">
@@ -6212,16 +6212,16 @@
         <v>10</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C354" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D354" t="s">
         <v>26</v>
       </c>
       <c r="E354" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="355">
@@ -6229,10 +6229,10 @@
         <v>10</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C355" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D355" t="s">
         <v>27</v>
@@ -6246,7 +6246,7 @@
         <v>10</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
         <v>21</v>
@@ -6255,7 +6255,7 @@
         <v>22</v>
       </c>
       <c r="E356" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="357">
@@ -6263,7 +6263,7 @@
         <v>10</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C357" t="s">
         <v>21</v>
@@ -6272,7 +6272,7 @@
         <v>23</v>
       </c>
       <c r="E357" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="358">
@@ -6280,7 +6280,7 @@
         <v>10</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C358" t="s">
         <v>21</v>
@@ -6289,7 +6289,7 @@
         <v>24</v>
       </c>
       <c r="E358" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="359">
@@ -6297,7 +6297,7 @@
         <v>10</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C359" t="s">
         <v>21</v>
@@ -6306,7 +6306,7 @@
         <v>25</v>
       </c>
       <c r="E359" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="360">
@@ -6314,7 +6314,7 @@
         <v>10</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C360" t="s">
         <v>21</v>
@@ -6323,7 +6323,7 @@
         <v>26</v>
       </c>
       <c r="E360" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="361">
@@ -6331,7 +6331,7 @@
         <v>10</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C361" t="s">
         <v>21</v>
@@ -6340,7 +6340,7 @@
         <v>27</v>
       </c>
       <c r="E361" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="362">
@@ -6348,10 +6348,10 @@
         <v>10</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D362" t="s">
         <v>22</v>
@@ -6365,16 +6365,16 @@
         <v>10</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C363" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D363" t="s">
         <v>23</v>
       </c>
       <c r="E363" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="364">
@@ -6382,10 +6382,10 @@
         <v>10</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C364" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D364" t="s">
         <v>24</v>
@@ -6399,16 +6399,16 @@
         <v>10</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C365" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D365" t="s">
         <v>25</v>
       </c>
       <c r="E365" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="366">
@@ -6416,16 +6416,16 @@
         <v>10</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C366" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D366" t="s">
         <v>26</v>
       </c>
       <c r="E366" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="367">
@@ -6433,10 +6433,10 @@
         <v>10</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C367" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D367" t="s">
         <v>27</v>
@@ -6450,16 +6450,16 @@
         <v>10</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C368" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D368" t="s">
         <v>22</v>
       </c>
       <c r="E368" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="369">
@@ -6467,16 +6467,16 @@
         <v>10</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C369" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D369" t="s">
         <v>23</v>
       </c>
       <c r="E369" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="370">
@@ -6484,16 +6484,16 @@
         <v>10</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C370" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D370" t="s">
         <v>24</v>
       </c>
       <c r="E370" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="371">
@@ -6501,16 +6501,16 @@
         <v>10</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D371" t="s">
         <v>25</v>
       </c>
       <c r="E371" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="372">
@@ -6518,16 +6518,16 @@
         <v>10</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C372" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D372" t="s">
         <v>26</v>
       </c>
       <c r="E372" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="373">
@@ -6535,16 +6535,16 @@
         <v>10</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C373" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D373" t="s">
         <v>27</v>
       </c>
       <c r="E373" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="374">
@@ -6552,10 +6552,10 @@
         <v>10</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C374" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D374" t="s">
         <v>22</v>
@@ -6569,16 +6569,16 @@
         <v>10</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C375" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D375" t="s">
         <v>23</v>
       </c>
       <c r="E375" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="376">
@@ -6586,10 +6586,10 @@
         <v>10</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C376" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D376" t="s">
         <v>24</v>
@@ -6603,16 +6603,16 @@
         <v>10</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C377" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D377" t="s">
         <v>25</v>
       </c>
       <c r="E377" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="378">
@@ -6620,16 +6620,16 @@
         <v>10</v>
       </c>
       <c r="B378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C378" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D378" t="s">
         <v>26</v>
       </c>
       <c r="E378" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="379">
@@ -6637,10 +6637,10 @@
         <v>10</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C379" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D379" t="s">
         <v>27</v>
@@ -6654,7 +6654,7 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C380" t="s">
         <v>21</v>
@@ -6663,7 +6663,7 @@
         <v>22</v>
       </c>
       <c r="E380" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="381">
@@ -6671,7 +6671,7 @@
         <v>10</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C381" t="s">
         <v>21</v>
@@ -6680,7 +6680,7 @@
         <v>23</v>
       </c>
       <c r="E381" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="382">
@@ -6688,7 +6688,7 @@
         <v>10</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C382" t="s">
         <v>21</v>
@@ -6697,7 +6697,7 @@
         <v>24</v>
       </c>
       <c r="E382" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="383">
@@ -6705,7 +6705,7 @@
         <v>10</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C383" t="s">
         <v>21</v>
@@ -6714,7 +6714,7 @@
         <v>25</v>
       </c>
       <c r="E383" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="384">
@@ -6722,7 +6722,7 @@
         <v>10</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C384" t="s">
         <v>21</v>
@@ -6731,7 +6731,7 @@
         <v>26</v>
       </c>
       <c r="E384" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="385">
@@ -6739,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="B385" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C385" t="s">
         <v>21</v>
@@ -6748,7 +6748,7 @@
         <v>27</v>
       </c>
       <c r="E385" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="386">
@@ -6756,10 +6756,10 @@
         <v>10</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C386" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D386" t="s">
         <v>22</v>
@@ -6773,16 +6773,16 @@
         <v>10</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C387" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D387" t="s">
         <v>23</v>
       </c>
       <c r="E387" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="388">
@@ -6790,10 +6790,10 @@
         <v>10</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C388" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D388" t="s">
         <v>24</v>
@@ -6807,16 +6807,16 @@
         <v>10</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C389" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D389" t="s">
         <v>25</v>
       </c>
       <c r="E389" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="390">
@@ -6824,16 +6824,16 @@
         <v>10</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C390" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D390" t="s">
         <v>26</v>
       </c>
       <c r="E390" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="391">
@@ -6841,10 +6841,10 @@
         <v>10</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C391" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D391" t="s">
         <v>27</v>
@@ -6858,16 +6858,16 @@
         <v>10</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D392" t="s">
         <v>22</v>
       </c>
       <c r="E392" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="393">
@@ -6875,16 +6875,16 @@
         <v>10</v>
       </c>
       <c r="B393" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C393" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D393" t="s">
         <v>23</v>
       </c>
       <c r="E393" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394">
@@ -6892,16 +6892,16 @@
         <v>10</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C394" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D394" t="s">
         <v>24</v>
       </c>
       <c r="E394" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="395">
@@ -6909,16 +6909,16 @@
         <v>10</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C395" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D395" t="s">
         <v>25</v>
       </c>
       <c r="E395" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="396">
@@ -6926,16 +6926,16 @@
         <v>10</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C396" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D396" t="s">
         <v>26</v>
       </c>
       <c r="E396" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="397">
@@ -6943,16 +6943,16 @@
         <v>10</v>
       </c>
       <c r="B397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C397" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D397" t="s">
         <v>27</v>
       </c>
       <c r="E397" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="398">
@@ -6960,10 +6960,10 @@
         <v>10</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C398" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D398" t="s">
         <v>22</v>
@@ -6977,16 +6977,16 @@
         <v>10</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C399" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D399" t="s">
         <v>23</v>
       </c>
       <c r="E399" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="400">
@@ -6994,10 +6994,10 @@
         <v>10</v>
       </c>
       <c r="B400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C400" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D400" t="s">
         <v>24</v>
@@ -7011,16 +7011,16 @@
         <v>10</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C401" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D401" t="s">
         <v>25</v>
       </c>
       <c r="E401" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="402">
@@ -7028,16 +7028,16 @@
         <v>10</v>
       </c>
       <c r="B402" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C402" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D402" t="s">
         <v>26</v>
       </c>
       <c r="E402" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="403">
@@ -7045,10 +7045,10 @@
         <v>10</v>
       </c>
       <c r="B403" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C403" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D403" t="s">
         <v>27</v>
@@ -7062,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="B404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C404" t="s">
         <v>21</v>
@@ -7071,7 +7071,7 @@
         <v>22</v>
       </c>
       <c r="E404" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="405">
@@ -7079,7 +7079,7 @@
         <v>10</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C405" t="s">
         <v>21</v>
@@ -7088,7 +7088,7 @@
         <v>23</v>
       </c>
       <c r="E405" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="406">
@@ -7096,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C406" t="s">
         <v>21</v>
@@ -7105,7 +7105,7 @@
         <v>24</v>
       </c>
       <c r="E406" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="407">
@@ -7113,7 +7113,7 @@
         <v>10</v>
       </c>
       <c r="B407" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C407" t="s">
         <v>21</v>
@@ -7122,7 +7122,7 @@
         <v>25</v>
       </c>
       <c r="E407" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="408">
@@ -7130,7 +7130,7 @@
         <v>10</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C408" t="s">
         <v>21</v>
@@ -7139,7 +7139,7 @@
         <v>26</v>
       </c>
       <c r="E408" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="409">
@@ -7147,7 +7147,7 @@
         <v>10</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C409" t="s">
         <v>21</v>
@@ -7156,7 +7156,7 @@
         <v>27</v>
       </c>
       <c r="E409" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="410">
@@ -7164,16 +7164,16 @@
         <v>11</v>
       </c>
       <c r="B410" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C410" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D410" t="s">
         <v>22</v>
       </c>
       <c r="E410" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="411">
@@ -7181,16 +7181,16 @@
         <v>11</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C411" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D411" t="s">
         <v>23</v>
       </c>
       <c r="E411" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="412">
@@ -7198,16 +7198,16 @@
         <v>11</v>
       </c>
       <c r="B412" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C412" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D412" t="s">
         <v>24</v>
       </c>
       <c r="E412" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="413">
@@ -7215,16 +7215,16 @@
         <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C413" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D413" t="s">
         <v>25</v>
       </c>
       <c r="E413" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="414">
@@ -7232,16 +7232,16 @@
         <v>11</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C414" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D414" t="s">
         <v>26</v>
       </c>
       <c r="E414" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="415">
@@ -7249,16 +7249,16 @@
         <v>11</v>
       </c>
       <c r="B415" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C415" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D415" t="s">
         <v>27</v>
       </c>
       <c r="E415" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="416">
@@ -7266,16 +7266,16 @@
         <v>11</v>
       </c>
       <c r="B416" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C416" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D416" t="s">
         <v>22</v>
       </c>
       <c r="E416" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="417">
@@ -7283,16 +7283,16 @@
         <v>11</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C417" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D417" t="s">
         <v>23</v>
       </c>
       <c r="E417" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="418">
@@ -7300,16 +7300,16 @@
         <v>11</v>
       </c>
       <c r="B418" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C418" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D418" t="s">
         <v>24</v>
       </c>
       <c r="E418" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="419">
@@ -7317,16 +7317,16 @@
         <v>11</v>
       </c>
       <c r="B419" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C419" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D419" t="s">
         <v>25</v>
       </c>
       <c r="E419" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="420">
@@ -7334,16 +7334,16 @@
         <v>11</v>
       </c>
       <c r="B420" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C420" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D420" t="s">
         <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="421">
@@ -7351,16 +7351,16 @@
         <v>11</v>
       </c>
       <c r="B421" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C421" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D421" t="s">
         <v>27</v>
       </c>
       <c r="E421" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="422">
@@ -7368,16 +7368,16 @@
         <v>11</v>
       </c>
       <c r="B422" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C422" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D422" t="s">
         <v>22</v>
       </c>
       <c r="E422" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="423">
@@ -7385,16 +7385,16 @@
         <v>11</v>
       </c>
       <c r="B423" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C423" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D423" t="s">
         <v>23</v>
       </c>
       <c r="E423" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="424">
@@ -7402,16 +7402,16 @@
         <v>11</v>
       </c>
       <c r="B424" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C424" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D424" t="s">
         <v>24</v>
       </c>
       <c r="E424" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="425">
@@ -7419,16 +7419,16 @@
         <v>11</v>
       </c>
       <c r="B425" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C425" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D425" t="s">
         <v>25</v>
       </c>
       <c r="E425" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="426">
@@ -7436,16 +7436,16 @@
         <v>11</v>
       </c>
       <c r="B426" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C426" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D426" t="s">
         <v>26</v>
       </c>
       <c r="E426" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="427">
@@ -7453,16 +7453,16 @@
         <v>11</v>
       </c>
       <c r="B427" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C427" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D427" t="s">
         <v>27</v>
       </c>
       <c r="E427" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="428">
@@ -7470,16 +7470,16 @@
         <v>11</v>
       </c>
       <c r="B428" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C428" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D428" t="s">
         <v>22</v>
       </c>
       <c r="E428" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="429">
@@ -7487,16 +7487,16 @@
         <v>11</v>
       </c>
       <c r="B429" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C429" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D429" t="s">
         <v>23</v>
       </c>
       <c r="E429" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="430">
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="B430" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C430" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D430" t="s">
         <v>24</v>
       </c>
       <c r="E430" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="431">
@@ -7521,16 +7521,16 @@
         <v>11</v>
       </c>
       <c r="B431" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C431" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D431" t="s">
         <v>25</v>
       </c>
       <c r="E431" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="432">
@@ -7538,16 +7538,16 @@
         <v>11</v>
       </c>
       <c r="B432" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C432" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D432" t="s">
         <v>26</v>
       </c>
       <c r="E432" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="433">
@@ -7555,16 +7555,16 @@
         <v>11</v>
       </c>
       <c r="B433" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C433" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D433" t="s">
         <v>27</v>
       </c>
       <c r="E433" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="434">
@@ -7572,16 +7572,16 @@
         <v>11</v>
       </c>
       <c r="B434" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C434" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D434" t="s">
         <v>22</v>
       </c>
       <c r="E434" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="435">
@@ -7589,16 +7589,16 @@
         <v>11</v>
       </c>
       <c r="B435" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C435" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D435" t="s">
         <v>23</v>
       </c>
       <c r="E435" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="436">
@@ -7606,16 +7606,16 @@
         <v>11</v>
       </c>
       <c r="B436" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C436" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D436" t="s">
         <v>24</v>
       </c>
       <c r="E436" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="437">
@@ -7623,16 +7623,16 @@
         <v>11</v>
       </c>
       <c r="B437" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C437" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D437" t="s">
         <v>25</v>
       </c>
       <c r="E437" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="438">
@@ -7640,16 +7640,16 @@
         <v>11</v>
       </c>
       <c r="B438" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C438" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D438" t="s">
         <v>26</v>
       </c>
       <c r="E438" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="439">
@@ -7657,16 +7657,16 @@
         <v>11</v>
       </c>
       <c r="B439" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C439" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D439" t="s">
         <v>27</v>
       </c>
       <c r="E439" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="440">
@@ -7674,16 +7674,16 @@
         <v>11</v>
       </c>
       <c r="B440" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C440" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D440" t="s">
         <v>22</v>
       </c>
       <c r="E440" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="441">
@@ -7691,16 +7691,16 @@
         <v>11</v>
       </c>
       <c r="B441" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C441" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D441" t="s">
         <v>23</v>
       </c>
       <c r="E441" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="442">
@@ -7708,16 +7708,16 @@
         <v>11</v>
       </c>
       <c r="B442" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C442" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D442" t="s">
         <v>24</v>
       </c>
       <c r="E442" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="443">
@@ -7725,16 +7725,16 @@
         <v>11</v>
       </c>
       <c r="B443" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C443" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D443" t="s">
         <v>25</v>
       </c>
       <c r="E443" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="444">
@@ -7742,16 +7742,16 @@
         <v>11</v>
       </c>
       <c r="B444" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C444" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D444" t="s">
         <v>26</v>
       </c>
       <c r="E444" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="445">
@@ -7759,16 +7759,16 @@
         <v>11</v>
       </c>
       <c r="B445" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C445" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D445" t="s">
         <v>27</v>
       </c>
       <c r="E445" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="446">
@@ -7776,16 +7776,16 @@
         <v>11</v>
       </c>
       <c r="B446" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C446" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D446" t="s">
         <v>22</v>
       </c>
       <c r="E446" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="447">
@@ -7793,16 +7793,16 @@
         <v>11</v>
       </c>
       <c r="B447" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C447" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D447" t="s">
         <v>23</v>
       </c>
       <c r="E447" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="448">
@@ -7810,16 +7810,16 @@
         <v>11</v>
       </c>
       <c r="B448" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C448" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D448" t="s">
         <v>24</v>
       </c>
       <c r="E448" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="449">
@@ -7827,16 +7827,16 @@
         <v>11</v>
       </c>
       <c r="B449" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C449" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D449" t="s">
         <v>25</v>
       </c>
       <c r="E449" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="450">
@@ -7844,16 +7844,16 @@
         <v>11</v>
       </c>
       <c r="B450" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C450" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D450" t="s">
         <v>26</v>
       </c>
       <c r="E450" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="451">
@@ -7861,16 +7861,16 @@
         <v>11</v>
       </c>
       <c r="B451" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C451" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D451" t="s">
         <v>27</v>
       </c>
       <c r="E451" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="452">
@@ -7878,16 +7878,16 @@
         <v>11</v>
       </c>
       <c r="B452" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C452" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D452" t="s">
         <v>22</v>
       </c>
       <c r="E452" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="453">
@@ -7895,16 +7895,16 @@
         <v>11</v>
       </c>
       <c r="B453" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C453" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D453" t="s">
         <v>23</v>
       </c>
       <c r="E453" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="454">
@@ -7912,16 +7912,16 @@
         <v>11</v>
       </c>
       <c r="B454" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C454" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D454" t="s">
         <v>24</v>
       </c>
       <c r="E454" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="455">
@@ -7929,16 +7929,16 @@
         <v>11</v>
       </c>
       <c r="B455" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C455" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D455" t="s">
         <v>25</v>
       </c>
       <c r="E455" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="456">
@@ -7946,16 +7946,16 @@
         <v>11</v>
       </c>
       <c r="B456" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C456" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D456" t="s">
         <v>26</v>
       </c>
       <c r="E456" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="457">
@@ -7963,16 +7963,16 @@
         <v>11</v>
       </c>
       <c r="B457" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C457" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D457" t="s">
         <v>27</v>
       </c>
       <c r="E457" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
